--- a/experience/sub-03CT/psych_RFT_COTE_sub-03CT.xlsx
+++ b/experience/sub-03CT/psych_RFT_COTE_sub-03CT.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{46C1A58F-5817-4BCB-BBF9-92EE9652D4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="psych_RFT_COTE_sub-03CT (2)" sheetId="2" r:id="rId1"/>
@@ -24,8 +24,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Requête - psych_RFT_COTE_sub-03CT" description="Connexion à la requête « psych_RFT_COTE_sub-03CT » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Requête - psych_RFT_COTE_sub-03CT" description="Connexion à la requête « psych_RFT_COTE_sub-03CT » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=psych_RFT_COTE_sub-03CT;Extended Properties=&quot;&quot;" command="SELECT * FROM [psych_RFT_COTE_sub-03CT]"/>
   </connection>
 </connections>
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1037,7 +1037,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DonnéesExternes_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="66">
     <queryTableFields count="65">
       <queryTableField id="1" name="Essai" tableColumnId="1"/>
@@ -1111,74 +1111,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="psych_RFT_COTE_sub_03CT" displayName="psych_RFT_COTE_sub_03CT" ref="A1:BM11" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:BM11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="psych_RFT_COTE_sub_03CT" displayName="psych_RFT_COTE_sub_03CT" ref="A1:BM11" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:BM11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="65">
-    <tableColumn id="1" uniqueName="1" name="Essai" queryTableFieldId="1" dataDxfId="64"/>
-    <tableColumn id="2" uniqueName="2" name="-35/-7" queryTableFieldId="2" dataDxfId="63"/>
-    <tableColumn id="3" uniqueName="3" name="-35/-4" queryTableFieldId="3" dataDxfId="62"/>
-    <tableColumn id="4" uniqueName="4" name="-35/-2" queryTableFieldId="4" dataDxfId="61"/>
-    <tableColumn id="5" uniqueName="5" name="-35/-1" queryTableFieldId="5" dataDxfId="60"/>
-    <tableColumn id="6" uniqueName="6" name="-35/1" queryTableFieldId="6" dataDxfId="59"/>
-    <tableColumn id="7" uniqueName="7" name="-35/2" queryTableFieldId="7" dataDxfId="58"/>
-    <tableColumn id="8" uniqueName="8" name="-35/4" queryTableFieldId="8" dataDxfId="57"/>
-    <tableColumn id="9" uniqueName="9" name="-35/7" queryTableFieldId="9" dataDxfId="56"/>
-    <tableColumn id="10" uniqueName="10" name="-25/-7" queryTableFieldId="10" dataDxfId="55"/>
-    <tableColumn id="11" uniqueName="11" name="-25/-4" queryTableFieldId="11" dataDxfId="54"/>
-    <tableColumn id="12" uniqueName="12" name="-25/-2" queryTableFieldId="12" dataDxfId="53"/>
-    <tableColumn id="13" uniqueName="13" name="-25/-1" queryTableFieldId="13" dataDxfId="52"/>
-    <tableColumn id="14" uniqueName="14" name="-25/1" queryTableFieldId="14" dataDxfId="51"/>
-    <tableColumn id="15" uniqueName="15" name="-25/2" queryTableFieldId="15" dataDxfId="50"/>
-    <tableColumn id="16" uniqueName="16" name="-25/4" queryTableFieldId="16" dataDxfId="49"/>
-    <tableColumn id="17" uniqueName="17" name="-25/7" queryTableFieldId="17" dataDxfId="48"/>
-    <tableColumn id="18" uniqueName="18" name="-15/-7" queryTableFieldId="18" dataDxfId="47"/>
-    <tableColumn id="19" uniqueName="19" name="-15/-4" queryTableFieldId="19" dataDxfId="46"/>
-    <tableColumn id="20" uniqueName="20" name="-15/-2" queryTableFieldId="20" dataDxfId="45"/>
-    <tableColumn id="21" uniqueName="21" name="-15/-1" queryTableFieldId="21" dataDxfId="44"/>
-    <tableColumn id="22" uniqueName="22" name="-15/1" queryTableFieldId="22" dataDxfId="43"/>
-    <tableColumn id="23" uniqueName="23" name="-15/2" queryTableFieldId="23" dataDxfId="42"/>
-    <tableColumn id="24" uniqueName="24" name="-15/4" queryTableFieldId="24" dataDxfId="41"/>
-    <tableColumn id="25" uniqueName="25" name="-15/7" queryTableFieldId="25" dataDxfId="40"/>
-    <tableColumn id="26" uniqueName="26" name="-5/-7" queryTableFieldId="26" dataDxfId="39"/>
-    <tableColumn id="27" uniqueName="27" name="-5/-4" queryTableFieldId="27" dataDxfId="38"/>
-    <tableColumn id="28" uniqueName="28" name="-5/-2" queryTableFieldId="28" dataDxfId="37"/>
-    <tableColumn id="29" uniqueName="29" name="-5/-1" queryTableFieldId="29" dataDxfId="36"/>
-    <tableColumn id="30" uniqueName="30" name="-5/1" queryTableFieldId="30" dataDxfId="35"/>
-    <tableColumn id="31" uniqueName="31" name="-5/2" queryTableFieldId="31" dataDxfId="34"/>
-    <tableColumn id="32" uniqueName="32" name="-5/4" queryTableFieldId="32" dataDxfId="33"/>
-    <tableColumn id="33" uniqueName="33" name="-5/7" queryTableFieldId="33" dataDxfId="32"/>
-    <tableColumn id="34" uniqueName="34" name="5/-7" queryTableFieldId="34" dataDxfId="31"/>
-    <tableColumn id="35" uniqueName="35" name="5/-4" queryTableFieldId="35" dataDxfId="30"/>
-    <tableColumn id="36" uniqueName="36" name="5/-2" queryTableFieldId="36" dataDxfId="29"/>
-    <tableColumn id="37" uniqueName="37" name="5/-1" queryTableFieldId="37" dataDxfId="28"/>
-    <tableColumn id="38" uniqueName="38" name="5/1" queryTableFieldId="38" dataDxfId="27"/>
-    <tableColumn id="39" uniqueName="39" name="5/2" queryTableFieldId="39" dataDxfId="26"/>
-    <tableColumn id="40" uniqueName="40" name="5/4" queryTableFieldId="40" dataDxfId="25"/>
-    <tableColumn id="41" uniqueName="41" name="5/7" queryTableFieldId="41" dataDxfId="24"/>
-    <tableColumn id="42" uniqueName="42" name="15/-7" queryTableFieldId="42" dataDxfId="23"/>
-    <tableColumn id="43" uniqueName="43" name="15/-4" queryTableFieldId="43" dataDxfId="22"/>
-    <tableColumn id="44" uniqueName="44" name="15/-2" queryTableFieldId="44" dataDxfId="21"/>
-    <tableColumn id="45" uniqueName="45" name="15/-1" queryTableFieldId="45" dataDxfId="20"/>
-    <tableColumn id="46" uniqueName="46" name="15/1" queryTableFieldId="46" dataDxfId="19"/>
-    <tableColumn id="47" uniqueName="47" name="15/2" queryTableFieldId="47" dataDxfId="18"/>
-    <tableColumn id="48" uniqueName="48" name="15/4" queryTableFieldId="48" dataDxfId="17"/>
-    <tableColumn id="49" uniqueName="49" name="15/7" queryTableFieldId="49" dataDxfId="16"/>
-    <tableColumn id="50" uniqueName="50" name="25/-7" queryTableFieldId="50" dataDxfId="15"/>
-    <tableColumn id="51" uniqueName="51" name="25/-4" queryTableFieldId="51" dataDxfId="14"/>
-    <tableColumn id="52" uniqueName="52" name="25/-2" queryTableFieldId="52" dataDxfId="13"/>
-    <tableColumn id="53" uniqueName="53" name="25/-1" queryTableFieldId="53" dataDxfId="12"/>
-    <tableColumn id="54" uniqueName="54" name="25/1" queryTableFieldId="54" dataDxfId="11"/>
-    <tableColumn id="55" uniqueName="55" name="25/2" queryTableFieldId="55" dataDxfId="10"/>
-    <tableColumn id="56" uniqueName="56" name="25/4" queryTableFieldId="56" dataDxfId="9"/>
-    <tableColumn id="57" uniqueName="57" name="25/7" queryTableFieldId="57" dataDxfId="8"/>
-    <tableColumn id="58" uniqueName="58" name="35/-7" queryTableFieldId="58" dataDxfId="7"/>
-    <tableColumn id="59" uniqueName="59" name="35/-4" queryTableFieldId="59" dataDxfId="6"/>
-    <tableColumn id="60" uniqueName="60" name="35/-2" queryTableFieldId="60" dataDxfId="5"/>
-    <tableColumn id="61" uniqueName="61" name="35/-1" queryTableFieldId="61" dataDxfId="4"/>
-    <tableColumn id="62" uniqueName="62" name="35/1" queryTableFieldId="62" dataDxfId="3"/>
-    <tableColumn id="63" uniqueName="63" name="35/2" queryTableFieldId="63" dataDxfId="2"/>
-    <tableColumn id="64" uniqueName="64" name="35/4" queryTableFieldId="64" dataDxfId="1"/>
-    <tableColumn id="65" uniqueName="65" name="35/7" queryTableFieldId="65" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Essai" queryTableFieldId="1" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="-35/-7" queryTableFieldId="2" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="-35/-4" queryTableFieldId="3" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="-35/-2" queryTableFieldId="4" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="-35/-1" queryTableFieldId="5" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="-35/1" queryTableFieldId="6" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="-35/2" queryTableFieldId="7" dataDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="-35/4" queryTableFieldId="8" dataDxfId="57"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="-35/7" queryTableFieldId="9" dataDxfId="56"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="-25/-7" queryTableFieldId="10" dataDxfId="55"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="-25/-4" queryTableFieldId="11" dataDxfId="54"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="-25/-2" queryTableFieldId="12" dataDxfId="53"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="-25/-1" queryTableFieldId="13" dataDxfId="52"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="-25/1" queryTableFieldId="14" dataDxfId="51"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="-25/2" queryTableFieldId="15" dataDxfId="50"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="-25/4" queryTableFieldId="16" dataDxfId="49"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="-25/7" queryTableFieldId="17" dataDxfId="48"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="-15/-7" queryTableFieldId="18" dataDxfId="47"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="19" name="-15/-4" queryTableFieldId="19" dataDxfId="46"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" uniqueName="20" name="-15/-2" queryTableFieldId="20" dataDxfId="45"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" uniqueName="21" name="-15/-1" queryTableFieldId="21" dataDxfId="44"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" uniqueName="22" name="-15/1" queryTableFieldId="22" dataDxfId="43"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" uniqueName="23" name="-15/2" queryTableFieldId="23" dataDxfId="42"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" uniqueName="24" name="-15/4" queryTableFieldId="24" dataDxfId="41"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" uniqueName="25" name="-15/7" queryTableFieldId="25" dataDxfId="40"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" uniqueName="26" name="-5/-7" queryTableFieldId="26" dataDxfId="39"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" uniqueName="27" name="-5/-4" queryTableFieldId="27" dataDxfId="38"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" uniqueName="28" name="-5/-2" queryTableFieldId="28" dataDxfId="37"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" uniqueName="29" name="-5/-1" queryTableFieldId="29" dataDxfId="36"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" uniqueName="30" name="-5/1" queryTableFieldId="30" dataDxfId="35"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" uniqueName="31" name="-5/2" queryTableFieldId="31" dataDxfId="34"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" uniqueName="32" name="-5/4" queryTableFieldId="32" dataDxfId="33"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" uniqueName="33" name="-5/7" queryTableFieldId="33" dataDxfId="32"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" uniqueName="34" name="5/-7" queryTableFieldId="34" dataDxfId="31"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" uniqueName="35" name="5/-4" queryTableFieldId="35" dataDxfId="30"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" uniqueName="36" name="5/-2" queryTableFieldId="36" dataDxfId="29"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" uniqueName="37" name="5/-1" queryTableFieldId="37" dataDxfId="28"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" uniqueName="38" name="5/1" queryTableFieldId="38" dataDxfId="27"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" uniqueName="39" name="5/2" queryTableFieldId="39" dataDxfId="26"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" uniqueName="40" name="5/4" queryTableFieldId="40" dataDxfId="25"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" uniqueName="41" name="5/7" queryTableFieldId="41" dataDxfId="24"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" uniqueName="42" name="15/-7" queryTableFieldId="42" dataDxfId="23"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" uniqueName="43" name="15/-4" queryTableFieldId="43" dataDxfId="22"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" uniqueName="44" name="15/-2" queryTableFieldId="44" dataDxfId="21"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" uniqueName="45" name="15/-1" queryTableFieldId="45" dataDxfId="20"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" uniqueName="46" name="15/1" queryTableFieldId="46" dataDxfId="19"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" uniqueName="47" name="15/2" queryTableFieldId="47" dataDxfId="18"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" uniqueName="48" name="15/4" queryTableFieldId="48" dataDxfId="17"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" uniqueName="49" name="15/7" queryTableFieldId="49" dataDxfId="16"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" uniqueName="50" name="25/-7" queryTableFieldId="50" dataDxfId="15"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" uniqueName="51" name="25/-4" queryTableFieldId="51" dataDxfId="14"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" uniqueName="52" name="25/-2" queryTableFieldId="52" dataDxfId="13"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" uniqueName="53" name="25/-1" queryTableFieldId="53" dataDxfId="12"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" uniqueName="54" name="25/1" queryTableFieldId="54" dataDxfId="11"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" uniqueName="55" name="25/2" queryTableFieldId="55" dataDxfId="10"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" uniqueName="56" name="25/4" queryTableFieldId="56" dataDxfId="9"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" uniqueName="57" name="25/7" queryTableFieldId="57" dataDxfId="8"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" uniqueName="58" name="35/-7" queryTableFieldId="58" dataDxfId="7"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" uniqueName="59" name="35/-4" queryTableFieldId="59" dataDxfId="6"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" uniqueName="60" name="35/-2" queryTableFieldId="60" dataDxfId="5"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" uniqueName="61" name="35/-1" queryTableFieldId="61" dataDxfId="4"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" uniqueName="62" name="35/1" queryTableFieldId="62" dataDxfId="3"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" uniqueName="63" name="35/2" queryTableFieldId="63" dataDxfId="2"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" uniqueName="64" name="35/4" queryTableFieldId="64" dataDxfId="1"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" uniqueName="65" name="35/7" queryTableFieldId="65" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -3688,7 +3688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
